--- a/数据整理/stocks/A股/深证主板/000825-太钢不锈.xlsx
+++ b/数据整理/stocks/A股/深证主板/000825-太钢不锈.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>83.37</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.85</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>83.37</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.85</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.57</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.83</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1803</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>98.47</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.04</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1332</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519183</t>
+          <t>168203</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>万家双引擎灵活配置混合</t>
+          <t>中融国证钢铁行业指数</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -678,25 +748,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001905</t>
+          <t>519183</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华安安益灵活配置混合</t>
+          <t>万家双引擎灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20.60</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -706,26 +786,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>168203</t>
+          <t>001905</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中融国证钢铁行业指数</t>
+          <t>华安安益灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.17</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000825-太钢不锈.xlsx
+++ b/数据整理/stocks/A股/深证主板/000825-太钢不锈.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,592 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5626</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4965</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>58.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000825-太钢不锈.xlsx
+++ b/数据整理/stocks/A股/深证主板/000825-太钢不锈.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1410,4 +1411,1198 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>64.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7640</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009474</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰致远优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8917</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>69.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4402</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0160</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8159</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7499</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001751</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商信用增强债券A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>46.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5505</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>37.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5399</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001752</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商信用增强债券C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2727</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>37.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2164</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1923</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1905</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1810</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>72.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>30.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>400013</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>55.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009999</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方中国红利混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007687</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>55.47</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>30.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>72.71</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005443</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>63.57</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000825-太钢不锈.xlsx
+++ b/数据整理/stocks/A股/深证主板/000825-太钢不锈.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2605,4 +2606,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000825-太钢不锈.xlsx
+++ b/数据整理/stocks/A股/深证主板/000825-太钢不锈.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2614,7 +2615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2625,17 +2626,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2645,14 +2666,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.51</v>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2685</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2661,14 +2704,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.49</v>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5951</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2677,14 +2742,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.4</v>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5312</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2693,13 +2780,341 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2298</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011987</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>38.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>38.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000825-太钢不锈.xlsx
+++ b/数据整理/stocks/A股/深证主板/000825-太钢不锈.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3013,7 +3014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3024,17 +3025,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3044,14 +3065,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.8</v>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5798</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3060,14 +3103,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>30</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.51</v>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5427</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3076,14 +3141,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.49</v>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3092,14 +3179,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.4</v>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -3108,13 +3217,243 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011987</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>38.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>38.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000825-太钢不锈.xlsx
+++ b/数据整理/stocks/A股/深证主板/000825-太钢不锈.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3336,7 +3337,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3347,17 +3348,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3367,14 +3388,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.27</v>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5618</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3383,14 +3426,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.8</v>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3259</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3399,14 +3464,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>30</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.51</v>
+          <t>012810</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1431</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3415,14 +3502,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.49</v>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -3431,14 +3540,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.4</v>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -3447,13 +3578,183 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000825-太钢不锈.xlsx
+++ b/数据整理/stocks/A股/深证主板/000825-太钢不锈.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1.27</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>2.8</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>11.51</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>1.49</v>
+        <v>11.51</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -600,6 +617,402 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3970</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2588</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1281</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1185</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005125</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>016815</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -883,7 +1296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1205,7 +1618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1603,7 +2016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2797,7 +3210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3385,7 +3798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3631,7 +4044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000825-太钢不锈.xlsx
+++ b/数据整理/stocks/A股/深证主板/000825-太钢不锈.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>1.05</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1.27</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>2.8</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>11.51</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>1.49</v>
+        <v>11.51</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,166 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,26 +832,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.23</t>
+          <t>13.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.88</t>
+          <t>99.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3970</t>
+          <t>0.3613</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -721,22 +870,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.48</t>
+          <t>8.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>94.55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2588</t>
+          <t>0.2368</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -759,26 +908,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.11</t>
+          <t>10.97</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>94.25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1281</t>
+          <t>0.1689</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -797,22 +946,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>94.55</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1185</t>
+          <t>0.0866</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -835,22 +984,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0898</t>
+          <t>0.0817</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -873,26 +1022,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>94.25</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0534</t>
+          <t>0.0507</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -916,17 +1065,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.45</t>
+          <t>91.91</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0021</t>
+          <t>0.0020</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -949,22 +1098,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.45</t>
+          <t>91.91</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.0005</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -987,21 +1136,23 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
       </c>
       <c r="H10" t="n">
         <v>8</v>
@@ -1013,6 +1164,402 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3970</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2588</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1281</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1185</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005125</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>016815</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1296,7 +1843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1618,7 +2165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2016,7 +2563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3210,7 +3757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3798,7 +4345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4042,136 +4589,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009658</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇丰晋信中小盘低波动策略股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>83.37</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1005</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009775</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇丰晋信中小盘低波动策略股票C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>83.37</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>